--- a/ExcelPln2/Input/master_input.xlsx
+++ b/ExcelPln2/Input/master_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19204" windowHeight="11795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11796" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="181">
   <si>
     <t>PropertyName</t>
   </si>
@@ -546,50 +546,56 @@
     <t>L&amp;M LOFT 1664</t>
   </si>
   <si>
-    <t>asasas</t>
-  </si>
-  <si>
-    <t>sss</t>
+    <t>masterrange.Cells(i)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>JTI</t>
+  </si>
+  <si>
+    <t>SHELL</t>
+  </si>
+  <si>
+    <t>2539 PALL MALL BLUE POCKET</t>
   </si>
   <si>
     <t>Pall Mall Crisp
 821</t>
   </si>
   <si>
-    <t>2539 PALL MALL BLUE POCKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky Strike BD Blue 25730 </t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>masterrange.Cells(i)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Ordinal</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>JTI</t>
-  </si>
-  <si>
-    <t>SHELL</t>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sxxxxx</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1013,6 +1019,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1026,7 +1054,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1146,6 +1174,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,16 +1195,34 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,17 +1293,17 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="476250" cy="742950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="1057275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1272,8 +1321,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="742950" y="1333500"/>
-          <a:ext cx="476250" cy="742950"/>
+          <a:off x="3366135" y="2061210"/>
+          <a:ext cx="600075" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,7 +1335,7 @@
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
@@ -1307,15 +1356,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="647700" cy="800100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 104"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552450" cy="1000125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1335,8 +1384,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1276350" y="1333500"/>
-          <a:ext cx="647700" cy="800100"/>
+          <a:off x="10820400" y="2004060"/>
+          <a:ext cx="552450" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,17 +1419,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="476250" cy="742950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1398,8 +1447,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1990725" y="1333500"/>
-          <a:ext cx="476250" cy="742950"/>
+          <a:off x="16472535" y="2175510"/>
+          <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1433,36 +1482,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1952625" y="1333500"/>
-          <a:ext cx="600075" cy="0"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 137" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1245870" y="4013835"/>
+          <a:ext cx="266700" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,36 +1545,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="628650" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2562225" y="1333500"/>
-          <a:ext cx="628650" cy="0"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 138" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1560195" y="4023360"/>
+          <a:ext cx="266700" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,17 +1608,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1047750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="561975" cy="1000125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1587,8 +1636,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5572125" y="847725"/>
-          <a:ext cx="571500" cy="1047750"/>
+          <a:off x="3518535" y="4004310"/>
+          <a:ext cx="561975" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1601,7 +1650,7 @@
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
@@ -1622,17 +1671,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="552450" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1650,8 +1699,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6172200" y="876300"/>
-          <a:ext cx="552450" cy="1000125"/>
+          <a:off x="4478655" y="3928110"/>
+          <a:ext cx="600075" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,7 +1713,7 @@
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
@@ -1685,15 +1734,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 4"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1713,8 +1762,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6838950" y="876300"/>
-          <a:ext cx="590550" cy="1076325"/>
+          <a:off x="7625715" y="4032885"/>
+          <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1748,36 +1797,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="885825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Obraz 259"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8143875" y="942975"/>
-          <a:ext cx="485775" cy="885825"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666750" cy="990600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Obraz 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8642985" y="4032885"/>
+          <a:ext cx="666750" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,17 +1860,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="571500" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1839,8 +1888,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8648700" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
+          <a:off x="9755505" y="3918585"/>
+          <a:ext cx="571500" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,6 +1923,321 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552450" cy="1000125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10820400" y="3947160"/>
+          <a:ext cx="552450" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11951970" y="3947160"/>
+          <a:ext cx="590550" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13150215" y="3918585"/>
+          <a:ext cx="590550" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="904875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Obraz 275"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14157960" y="4023360"/>
+          <a:ext cx="485775" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15314295" y="4118610"/>
+          <a:ext cx="609600" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1882,27 +2246,27 @@
     <xdr:ext cx="609600" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 39"/>
+        <xdr:cNvPr id="50" name="Picture 39"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9286875" y="1143000"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16472535" y="4137660"/>
           <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1937,36 +2301,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8677275" y="1143000"/>
-          <a:ext cx="609600" cy="952500"/>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17714595" y="4128135"/>
+          <a:ext cx="600075" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2000,540 +2364,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9286875" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="904875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Obraz 275"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8115300" y="1143000"/>
-          <a:ext cx="485775" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666750" cy="923925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 29"/>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="523875" cy="971550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 302"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3705225" y="952500"/>
-          <a:ext cx="666750" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4371975" y="1143000"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638175" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Obraz 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5029200" y="904875"/>
-          <a:ext cx="638175" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4371975" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4371975" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666750" cy="990600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="1143000"/>
-          <a:ext cx="666750" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="514350" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 299"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10467975" y="838200"/>
-          <a:ext cx="514350" cy="952500"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18731865" y="3918585"/>
+          <a:ext cx="523875" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2563,35 +2423,35 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="514350" cy="809625"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 298"/>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="523875" cy="819150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 301"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11096625" y="952500"/>
-          <a:ext cx="514350" cy="809625"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20290155" y="3994785"/>
+          <a:ext cx="523875" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2621,35 +2481,35 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="742950" cy="866775"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 300"/>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="866775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 315"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11639550" y="942975"/>
-          <a:ext cx="742950" cy="866775"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21574125" y="4137660"/>
+          <a:ext cx="771525" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2678,36 +2538,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="523875" cy="819150"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 301"/>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638175" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 321"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11077575" y="1114425"/>
-          <a:ext cx="523875" cy="819150"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22894290" y="4061460"/>
+          <a:ext cx="638175" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2736,152 +2596,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="523875" cy="971550"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 302"/>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 72"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10487025" y="1038225"/>
-          <a:ext cx="523875" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="771525" cy="866775"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 315"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11896725" y="1143000"/>
-          <a:ext cx="771525" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="885825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 68"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12915900" y="952500"/>
-          <a:ext cx="609600" cy="885825"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23978235" y="4128135"/>
+          <a:ext cx="619125" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,35 +2660,35 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="885825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 69"/>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="990600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 76"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13525500" y="952500"/>
-          <a:ext cx="609600" cy="885825"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25119330" y="4004310"/>
+          <a:ext cx="628650" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,36 +2722,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="628650" cy="990600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 76"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="742950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 60"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13582650" y="1123950"/>
-          <a:ext cx="628650" cy="990600"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1207770" y="6014085"/>
+          <a:ext cx="476250" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3041,36 +2785,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="619125" cy="981075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 72"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="647700" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 104"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12906375" y="1143000"/>
-          <a:ext cx="619125" cy="981075"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2205990" y="5995035"/>
+          <a:ext cx="647700" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3104,36 +2848,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1047750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 1"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="742950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 61"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="1038225"/>
-          <a:ext cx="571500" cy="1047750"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3385185" y="5985510"/>
+          <a:ext cx="476250" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,36 +2911,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="552450" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 2"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Obraz 94"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6172200" y="1066800"/>
-          <a:ext cx="552450" cy="1000125"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3347085" y="6014085"/>
+          <a:ext cx="600075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3230,36 +2974,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 4"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Obraz 94"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6838950" y="1066800"/>
-          <a:ext cx="590550" cy="1076325"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4421505" y="6014085"/>
+          <a:ext cx="628650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3293,36 +3037,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="561975" cy="933450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12344400" y="952500"/>
-          <a:ext cx="561975" cy="933450"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="904875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Obraz 275"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4540134" y="5775960"/>
+          <a:ext cx="485775" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3356,94 +3100,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638175" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 321"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666750" cy="990600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Obraz 94"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12287250" y="1143000"/>
-          <a:ext cx="638175" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="895350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934575" y="1143000"/>
-          <a:ext cx="600075" cy="895350"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5372100" y="5775960"/>
+          <a:ext cx="666750" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3477,36 +3163,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="904875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 55"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934575" y="952500"/>
-          <a:ext cx="609600" cy="904875"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 141" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2339340" y="3994785"/>
+          <a:ext cx="276225" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3540,36 +3226,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="657225" cy="923925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3848100" y="1143000"/>
-          <a:ext cx="657225" cy="923925"/>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 142" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2653665" y="4004310"/>
+          <a:ext cx="266700" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3603,699 +3289,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="1057275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 126"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1971675" y="933450"/>
-          <a:ext cx="600075" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="561975" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2124075" y="1123950"/>
-          <a:ext cx="561975" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1009650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="952500"/>
-          <a:ext cx="571500" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="1047750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 107"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2619375" y="1047750"/>
-          <a:ext cx="600075" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="266700" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 137" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="781050" y="1133475"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="266700" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 138" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1095375" y="1143000"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 139" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1352550" y="895350"/>
-          <a:ext cx="276225" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="1085850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 140" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1695450" y="885825"/>
-          <a:ext cx="276225" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 141" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1409700" y="1114425"/>
-          <a:ext cx="276225" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="266700" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 142" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1724025" y="1123950"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="628650" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3238500" y="952500"/>
-          <a:ext cx="628650" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -4304,27 +3297,27 @@
     <xdr:ext cx="628650" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 83"/>
+        <xdr:cNvPr id="69" name="Picture 83"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3200400" y="1143000"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5524500" y="4042410"/>
           <a:ext cx="628650" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4339,384 +3332,6 @@
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 87"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7572375" y="847725"/>
-          <a:ext cx="590550" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 87"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7572375" y="1038225"/>
-          <a:ext cx="590550" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>536863</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="647700" cy="800100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="834737" y="955963"/>
-          <a:ext cx="647700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>377537</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>689263</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="647700" cy="800100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="987137" y="955963"/>
-          <a:ext cx="647700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666750" cy="990600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3048000" y="1143000"/>
-          <a:ext cx="666750" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="904875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Obraz 275"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2680854" y="1143000"/>
-          <a:ext cx="485775" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
@@ -11035,7 +9650,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -11054,7 +9669,7 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -11075,29 +9690,29 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="41">
         <v>1</v>
@@ -11109,7 +9724,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B3" s="43">
         <v>2</v>
@@ -11121,7 +9736,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B4" s="41">
         <v>3</v>
@@ -11146,11 +9761,11 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
@@ -11731,23 +10346,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:23" ht="34.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="47" t="s">
+    <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:23" ht="34.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="49">
+    <row r="3" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="50">
         <v>1020</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="38"/>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="36">
         <v>1</v>
@@ -11820,72 +10435,34 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="B5" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="10" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
@@ -11894,41 +10471,31 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>25</v>
@@ -11937,7 +10504,7 @@
         <v>26</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>32</v>
@@ -11958,24 +10525,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="148.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="148.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>55</v>
@@ -12033,17 +10600,17 @@
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="30" t="s">
         <v>69</v>
       </c>
@@ -12085,14 +10652,14 @@
       <c r="B9" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>81</v>
+      <c r="C9" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>84</v>
@@ -12149,7 +10716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="159.05000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -12157,7 +10724,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>161</v>
@@ -12228,7 +10795,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>125</v>
@@ -12305,10 +10872,15 @@
     <row r="23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:L6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
@@ -12327,7 +10899,7 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
@@ -12397,7 +10969,7 @@
     <col min="16129" max="16169" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12431,10 +11003,10 @@
     <row r="2" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -12464,10 +11036,10 @@
     <row r="3" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -12494,7 +11066,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="21.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -12812,10 +11384,10 @@
       <c r="T7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="55" t="s">
+      <c r="U7" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="56"/>
+      <c r="V7" s="55"/>
       <c r="W7" s="1" t="s">
         <v>45</v>
       </c>

--- a/ExcelPln2/Input/master_input.xlsx
+++ b/ExcelPln2/Input/master_input.xlsx
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1177,6 +1177,39 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,35 +1228,11 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -9762,7 +9771,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10347,16 +10356,16 @@
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="50">
+      <c r="C3" s="61">
         <v>1020</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="38"/>
       <c r="N3" t="s">
         <v>164</v>
@@ -10435,27 +10444,27 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="60"/>
+      <c r="P5" s="52"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -10471,26 +10480,26 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="54" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="55"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
@@ -10600,17 +10609,17 @@
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="30" t="s">
         <v>69</v>
       </c>
@@ -10872,15 +10881,14 @@
     <row r="23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
@@ -11003,10 +11011,10 @@
     <row r="2" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -11036,10 +11044,10 @@
     <row r="3" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -11384,10 +11392,10 @@
       <c r="T7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="54" t="s">
+      <c r="U7" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="1" t="s">
         <v>45</v>
       </c>
